--- a/class6/output.xlsx
+++ b/class6/output.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
     <t>姓名</t>
   </si>
@@ -38,15 +38,6 @@
   </si>
   <si>
     <t>Gurobi</t>
-  </si>
-  <si>
-    <t>Bob</t>
-  </si>
-  <si>
-    <t>Cindy</t>
-  </si>
-  <si>
-    <t>David</t>
   </si>
 </sst>
 </file>
@@ -404,7 +395,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B10"/>
+  <dimension ref="A1:B7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -466,30 +457,6 @@
         <v>89</v>
       </c>
     </row>
-    <row r="8" spans="1:2">
-      <c r="A8" t="s">
-        <v>8</v>
-      </c>
-      <c r="B8">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2">
-      <c r="A9" t="s">
-        <v>9</v>
-      </c>
-      <c r="B9">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2">
-      <c r="A10" t="s">
-        <v>10</v>
-      </c>
-      <c r="B10">
-        <v>39</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
